--- a/仕訳帳.xlsx
+++ b/仕訳帳.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="仕訳帳" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'仕訳帳'!1:3</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -901,5 +903,13 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/仕訳帳.xlsx
+++ b/仕訳帳.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy年m月d日"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -64,13 +64,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -443,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,418 +486,344 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～　2022年3月31日</t>
+      <c r="B2" s="2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>借方科目</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>借方補助</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>貸方科目</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>貸方補助</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="5" t="n">
         <v>44291</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="6" t="n">
+      <c r="D4" s="6" t="inlineStr"/>
+      <c r="E4" s="7" t="n">
         <v>5000</v>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="7" t="n">
         <v>5000</v>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="I4" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">鈴木 </t>
         </is>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="5" t="n">
         <v>44291</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="6" t="inlineStr"/>
+      <c r="E5" s="7" t="n">
         <v>5000</v>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="G5" s="6" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>5000</v>
       </c>
-      <c r="I5" s="5" t="inlineStr">
+      <c r="I5" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">田中 </t>
         </is>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="5" t="n">
         <v>44306</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>普通預金</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>ゆうちょ</t>
         </is>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="7" t="n">
         <v>10000</v>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>入会金収入</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="6" t="n">
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="7" t="n">
         <v>10000</v>
       </c>
-      <c r="I6" s="5" t="inlineStr">
+      <c r="I6" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">木村 </t>
         </is>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="5" t="n">
         <v>44306</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>普通預金</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>ゆうちょ</t>
         </is>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="7" t="n">
         <v>5000</v>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="G7" s="5" t="inlineStr">
+      <c r="G7" s="6" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="7" t="n">
         <v>5000</v>
       </c>
-      <c r="I7" s="5" t="inlineStr">
+      <c r="I7" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">木村 </t>
         </is>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="5" t="n">
         <v>44322</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>行事費</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>B事業</t>
         </is>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="7" t="n">
         <v>1100</v>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="6" t="n">
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="7" t="n">
         <v>1100</v>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="I8" s="6" t="inlineStr">
         <is>
           <t>文房具購入 〇〇HC</t>
         </is>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="4" t="n">
-        <v>44326</v>
-      </c>
-      <c r="B9" s="5" t="n">
+      <c r="A9" s="5" t="n">
+        <v>44353</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>現金</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>普通預金</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>ゆうちょ</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="I9" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">現金引出 </t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="5" t="n">
+        <v>44367</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>行事費</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>B事業</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>前払金</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>会場費予約金 ××ホテル</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2021-04-01</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>普通預金</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>A銀行</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>前受金</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr"/>
+      <c r="E11" s="7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="G9" s="5" t="inlineStr">
-        <is>
-          <t>準会員</t>
-        </is>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">佐藤建設 </t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="4" t="n">
-        <v>44353</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>現金</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="6" t="n">
-        <v>50000</v>
-      </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>普通預金</t>
-        </is>
-      </c>
-      <c r="G10" s="5" t="inlineStr">
-        <is>
-          <t>ゆうちょ</t>
-        </is>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>50000</v>
-      </c>
-      <c r="I10" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">現金引出 </t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="4" t="n">
-        <v>44367</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="inlineStr">
-        <is>
-          <t>行事費</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>B事業</t>
-        </is>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>290000</v>
-      </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>普通預金</t>
-        </is>
-      </c>
-      <c r="G11" s="5" t="inlineStr">
-        <is>
-          <t>A銀行</t>
-        </is>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>290000</v>
-      </c>
-      <c r="I11" s="5" t="inlineStr">
-        <is>
-          <t>会場費 ××ホテル</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="4" t="n">
-        <v>44367</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>行事費</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>B事業</t>
-        </is>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>前払金</t>
-        </is>
-      </c>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="6" t="n">
-        <v>10000</v>
-      </c>
-      <c r="I12" s="5" t="inlineStr">
-        <is>
-          <t>会場費予約金 ××ホテル</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>2021-04-01</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>前受金</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="6" t="n">
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>正会員</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="n">
         <v>5000</v>
       </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>会費収入</t>
-        </is>
-      </c>
-      <c r="G13" s="5" t="inlineStr">
-        <is>
-          <t>正会員</t>
-        </is>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>5000</v>
-      </c>
-      <c r="I13" s="5" t="inlineStr">
+      <c r="I11" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">吉田 </t>
         </is>

--- a/仕訳帳.xlsx
+++ b/仕訳帳.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy年m月d日"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -64,16 +64,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -446,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,344 +483,418 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="B2" s="2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～　2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>借方科目</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>借方補助</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>貸方科目</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>貸方補助</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="4" t="n">
         <v>44291</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr"/>
-      <c r="E4" s="7" t="n">
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="H4" s="7" t="n">
+      <c r="H4" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="I4" s="6" t="inlineStr">
+      <c r="I4" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">鈴木 </t>
         </is>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="4" t="n">
         <v>44291</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr"/>
-      <c r="E5" s="7" t="n">
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="F5" s="6" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="G5" s="6" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="H5" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="I5" s="6" t="inlineStr">
+      <c r="I5" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">田中 </t>
         </is>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="4" t="n">
         <v>44306</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>普通預金</t>
         </is>
       </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>ゆうちょ</t>
         </is>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>入会金収入</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr"/>
-      <c r="H6" s="7" t="n">
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="I6" s="6" t="inlineStr">
+      <c r="I6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">木村 </t>
         </is>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="4" t="n">
         <v>44306</v>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>普通預金</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>ゆうちょ</t>
         </is>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="F7" s="6" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="G7" s="6" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="H7" s="7" t="n">
+      <c r="H7" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="I7" s="6" t="inlineStr">
+      <c r="I7" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">木村 </t>
         </is>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="4" t="n">
         <v>44322</v>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>行事費</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>B事業</t>
         </is>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="6" t="n">
         <v>1100</v>
       </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="G8" s="6" t="inlineStr"/>
-      <c r="H8" s="7" t="n">
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
         <v>1100</v>
       </c>
-      <c r="I8" s="6" t="inlineStr">
+      <c r="I8" s="5" t="inlineStr">
         <is>
           <t>文房具購入 〇〇HC</t>
         </is>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="4" t="n">
+        <v>44326</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>普通預金</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>A銀行</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>会費収入</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>準会員</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">佐藤建設 </t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="4" t="n">
         <v>44353</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B10" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="D9" s="6" t="inlineStr"/>
-      <c r="E9" s="7" t="n">
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="6" t="n">
         <v>50000</v>
       </c>
-      <c r="F9" s="6" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>普通預金</t>
         </is>
       </c>
-      <c r="G9" s="6" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>ゆうちょ</t>
         </is>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="H10" s="6" t="n">
         <v>50000</v>
       </c>
-      <c r="I9" s="6" t="inlineStr">
+      <c r="I10" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">現金引出 </t>
         </is>
       </c>
     </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="5" t="n">
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="4" t="n">
         <v>44367</v>
       </c>
-      <c r="B10" s="6" t="n">
+      <c r="B11" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>行事費</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>B事業</t>
         </is>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E11" s="6" t="n">
+        <v>290000</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>普通預金</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>A銀行</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>290000</v>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>会場費 ××ホテル</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" s="4" t="n">
+        <v>44367</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>行事費</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>B事業</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>前払金</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr"/>
-      <c r="H10" s="7" t="n">
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="I10" s="6" t="inlineStr">
+      <c r="I12" s="5" t="inlineStr">
         <is>
           <t>会場費予約金 ××ホテル</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+    <row r="13" ht="18" customHeight="1">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>2021-04-01</t>
         </is>
       </c>
-      <c r="B11" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
+      <c r="B13" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>前受金</t>
         </is>
       </c>
-      <c r="D11" s="6" t="inlineStr"/>
-      <c r="E11" s="7" t="n">
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="F11" s="6" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="G11" s="6" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="H11" s="7" t="n">
+      <c r="H13" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="I11" s="6" t="inlineStr">
+      <c r="I13" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">吉田 </t>
         </is>

--- a/仕訳帳.xlsx
+++ b/仕訳帳.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="仕訳帳" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'仕訳帳'!1:3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'仕訳帳'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -18,8 +18,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -78,7 +79,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -545,14 +546,14 @@
     </row>
     <row r="4" ht="18" customHeight="1">
       <c r="A4" s="5" t="n">
-        <v>44291</v>
+        <v>44287</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="inlineStr">
         <is>
-          <t>現金</t>
+          <t>前受金</t>
         </is>
       </c>
       <c r="D4" s="6" t="inlineStr"/>
@@ -574,7 +575,7 @@
       </c>
       <c r="I4" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">鈴木 </t>
+          <t xml:space="preserve">吉田 </t>
         </is>
       </c>
     </row>
@@ -583,7 +584,7 @@
         <v>44291</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="6" t="inlineStr">
         <is>
@@ -609,42 +610,42 @@
       </c>
       <c r="I5" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">田中 </t>
+          <t xml:space="preserve">鈴木 </t>
         </is>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="A6" s="5" t="n">
-        <v>44306</v>
+        <v>44291</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" s="6" t="inlineStr">
         <is>
-          <t>普通預金</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>ゆうちょ</t>
-        </is>
-      </c>
+          <t>現金</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="7" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
-          <t>入会金収入</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="inlineStr"/>
+          <t>会費収入</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>正会員</t>
+        </is>
+      </c>
       <c r="H6" s="7" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="I6" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">木村 </t>
+          <t xml:space="preserve">田中 </t>
         </is>
       </c>
     </row>
@@ -653,7 +654,7 @@
         <v>44306</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="6" t="inlineStr">
         <is>
@@ -666,20 +667,16 @@
         </is>
       </c>
       <c r="E7" s="7" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
-          <t>会費収入</t>
-        </is>
-      </c>
-      <c r="G7" s="6" t="inlineStr">
-        <is>
-          <t>正会員</t>
-        </is>
-      </c>
+          <t>入会金収入</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="7" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="I7" s="6" t="inlineStr">
         <is>
@@ -689,143 +686,145 @@
     </row>
     <row r="8" ht="18" customHeight="1">
       <c r="A8" s="5" t="n">
-        <v>44322</v>
+        <v>44306</v>
       </c>
       <c r="B8" s="6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" s="6" t="inlineStr">
         <is>
-          <t>行事費</t>
+          <t>普通預金</t>
         </is>
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>B事業</t>
+          <t>ゆうちょ</t>
         </is>
       </c>
       <c r="E8" s="7" t="n">
-        <v>1100</v>
+        <v>5000</v>
       </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
-          <t>現金</t>
-        </is>
-      </c>
-      <c r="G8" s="6" t="inlineStr"/>
+          <t>会費収入</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>正会員</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="n">
-        <v>1100</v>
+        <v>5000</v>
       </c>
       <c r="I8" s="6" t="inlineStr">
         <is>
-          <t>文房具購入 〇〇HC</t>
+          <t xml:space="preserve">木村 </t>
         </is>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="A9" s="5" t="n">
-        <v>44353</v>
+        <v>44322</v>
       </c>
       <c r="B9" s="6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" s="6" t="inlineStr">
         <is>
+          <t>行事費</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>B事業</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="D9" s="6" t="inlineStr"/>
-      <c r="E9" s="7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>普通預金</t>
-        </is>
-      </c>
-      <c r="G9" s="6" t="inlineStr">
-        <is>
-          <t>ゆうちょ</t>
-        </is>
-      </c>
+      <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="7" t="n">
-        <v>50000</v>
+        <v>1100</v>
       </c>
       <c r="I9" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">現金引出 </t>
+          <t>文房具購入 〇〇HC</t>
         </is>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
       <c r="A10" s="5" t="n">
+        <v>44353</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>現金</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr"/>
+      <c r="E10" s="7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>普通預金</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>ゆうちょ</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">現金引出 </t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="5" t="n">
         <v>44367</v>
       </c>
-      <c r="B10" s="6" t="n">
+      <c r="B11" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>行事費</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>B事業</t>
         </is>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E11" s="7" t="n">
         <v>10000</v>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
         <is>
           <t>前払金</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr"/>
-      <c r="H10" s="7" t="n">
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="7" t="n">
         <v>10000</v>
       </c>
-      <c r="I10" s="6" t="inlineStr">
+      <c r="I11" s="6" t="inlineStr">
         <is>
           <t>会場費予約金 ××ホテル</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>2021-04-01</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>前受金</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr"/>
-      <c r="E11" s="7" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F11" s="6" t="inlineStr">
-        <is>
-          <t>会費収入</t>
-        </is>
-      </c>
-      <c r="G11" s="6" t="inlineStr">
-        <is>
-          <t>正会員</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="n">
-        <v>5000</v>
-      </c>
-      <c r="I11" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">吉田 </t>
         </is>
       </c>
     </row>

--- a/仕訳帳.xlsx
+++ b/仕訳帳.xlsx
@@ -487,7 +487,8 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2" t="n"/>
+      <c r="E2">
         <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
         <v/>
       </c>
